--- a/biology/Botanique/Carex_brongniartii/Carex_brongniartii.xlsx
+++ b/biology/Botanique/Carex_brongniartii/Carex_brongniartii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carex brongniartii est une espèce de plantes du genre Carex et de la famille des Cyperaceae. Elle est originaire de certaines régions d’Amérique du Sud et se trouve principalement dans les biomes subtropicaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carex brongniartii est une espèce de plantes du genre Carex et de la famille des Cyperaceae. Elle est originaire de certaines régions d’Amérique du Sud et se trouve principalement dans les biomes subtropicaux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Utilisations et avantages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que les informations spécifiques sur les utilisations et les avantages de Carex brongniartii soient limitées, les plantes du genre Carex sont souvent utilisées dans l’aménagement paysager pour leur aspect ornemental et leur capacité à prospérer dans des habitats humides et ombragés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que les informations spécifiques sur les utilisations et les avantages de Carex brongniartii soient limitées, les plantes du genre Carex sont souvent utilisées dans l’aménagement paysager pour leur aspect ornemental et leur capacité à prospérer dans des habitats humides et ombragés.
 </t>
         </is>
       </c>
